--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_17_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>697245.0595353361</v>
+        <v>692191.3848207144</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24104047.79063755</v>
+        <v>24104047.79063753</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8461764.091366261</v>
+        <v>8461764.091366263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5892444.167583318</v>
+        <v>5892444.167583317</v>
       </c>
     </row>
     <row r="11">
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I11" t="n">
         <v>2.701627844419818</v>
@@ -1426,16 +1426,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>50.87662729500714</v>
+        <v>343.3898123041177</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1448,16 +1448,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>72.8895099684989</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
-        <v>15.88819567074289</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
@@ -1502,7 +1502,7 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T12" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>195.3017141927292</v>
@@ -1530,7 +1530,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>157.8996982303191</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.6146493334786</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.8128787506481642</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U13" t="n">
-        <v>172.6301121018103</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
         <v>276.2789678462144</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>165.4882944549463</v>
+        <v>86.45927823379442</v>
       </c>
       <c r="H14" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.701627844419818</v>
+        <v>2.701627844419789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1697,13 +1697,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>52.45700824276043</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>35.1171759759654</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1742,7 +1742,7 @@
         <v>153.1173860389223</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3017141927292</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1770,22 +1770,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>79.18175880386528</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H16" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I16" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V16" t="n">
-        <v>74.05583594399739</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>50.87662729500714</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>235.2620997437315</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1937,7 +1937,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>97.70411326236224</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>85.56893955755871</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3017141927292</v>
+        <v>139.888441416169</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
@@ -2004,7 +2004,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>110.6902275768106</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>86.21539686933359</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.10931561104032</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T19" t="n">
-        <v>233.0375990857039</v>
+        <v>161.8118605071358</v>
       </c>
       <c r="U19" t="n">
         <v>279.9176257340516</v>
@@ -2064,7 +2064,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>96.96508372019171</v>
       </c>
       <c r="G20" t="n">
         <v>402.4936277569416</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>123.2294015974562</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>19.55844721682702</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3017141927292</v>
+        <v>150.7365578555714</v>
       </c>
       <c r="V21" t="n">
         <v>211.5744117368965</v>
@@ -2225,7 +2225,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X21" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>157.8079400398083</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>86.95973703428581</v>
       </c>
       <c r="H22" t="n">
-        <v>124.6777024850725</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S22" t="n">
         <v>167.7412420701844</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>90.34178912261397</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>242.388149767362</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H23" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2408,10 +2408,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>38.76077309947197</v>
+        <v>79.08260763742851</v>
       </c>
       <c r="H24" t="n">
         <v>58.94334016289027</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U24" t="n">
         <v>195.3017141927292</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U25" t="n">
-        <v>70.86566320583722</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>197.3644752812348</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H26" t="n">
-        <v>120.6618879718486</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I26" t="n">
         <v>2.701627844419818</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T26" t="n">
         <v>210.5842916762861</v>
@@ -2614,13 +2614,13 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>106.7426064405937</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2645,13 +2645,13 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>30.15566678099876</v>
       </c>
       <c r="H27" t="n">
-        <v>52.45700824276043</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>153.1173860389223</v>
@@ -2715,25 +2715,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>91.72765758559098</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I28" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>20.79509102286317</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>96.19845302681871</v>
       </c>
       <c r="H29" t="n">
         <v>285.807623447931</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>65.33135780466235</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U29" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G30" t="n">
-        <v>104.7712654402038</v>
+        <v>30.15566678099832</v>
       </c>
       <c r="H30" t="n">
-        <v>14.37818382573224</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>153.1173860389223</v>
@@ -2936,7 +2936,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y30" t="n">
         <v>157.8079400398083</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>93.91186590540062</v>
       </c>
       <c r="C31" t="n">
         <v>169.3824387139007</v>
@@ -2961,7 +2961,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.6146493334786</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>80.7568152864354</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3034,22 +3034,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>162.3582303893045</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>112.5282615394515</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D33" t="n">
-        <v>41.1125875435965</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E33" t="n">
         <v>119.2878878475953</v>
@@ -3122,7 +3122,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G33" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>30.15566678099814</v>
       </c>
       <c r="T33" t="n">
         <v>153.1173860389223</v>
@@ -3192,10 +3192,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>64.69586507537059</v>
+        <v>54.13083312342582</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>300.6861343582229</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I35" t="n">
         <v>2.701627844419818</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.5842916762861</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>245.8177085455623</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
         <v>132.6551205385437</v>
@@ -3353,13 +3353,13 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>98.00335194006182</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>85.56893955755871</v>
+        <v>30.15566678099859</v>
       </c>
       <c r="T36" t="n">
         <v>153.1173860389223</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>6.915943367825726</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H37" t="n">
         <v>139.5473206610679</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.7412420701844</v>
+        <v>134.213721867885</v>
       </c>
       <c r="T37" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9176257340516</v>
@@ -3486,7 +3486,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>113.9044791554595</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>228.2360081831826</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,7 +3596,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>58.94334016289027</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>85.56893955755871</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>153.1173860389223</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V39" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>187.2746723941096</v>
+        <v>182.313163199143</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3678,10 +3678,10 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>127.0961963963268</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S40" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>81.54758657017483</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>167.633594165266</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3754,13 +3754,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>234.8183200204549</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.5842916762861</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>77.24184776198372</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3830,10 +3830,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F42" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>52.45700824275999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>6.788221841792971</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T43" t="n">
-        <v>150.0579593317067</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>100.9166260620065</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2.701627844419818</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>138.1821039601329</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,7 +4070,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>38.76077309947197</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H45" t="n">
         <v>58.94334016289027</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>85.56893955755871</v>
+        <v>19.55844721682657</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>139.5473206610679</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>63.84465543725897</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>14.98234114901173</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>853.3525263596341</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="C11" t="n">
-        <v>443.2279356729042</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="D11" t="n">
-        <v>38.76400576596473</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="E11" t="n">
-        <v>38.76400576596473</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="F11" t="n">
-        <v>38.76400576596473</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="G11" t="n">
-        <v>38.76400576596473</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H11" t="n">
         <v>38.76400576596473</v>
@@ -5041,16 +5041,16 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J11" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K11" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L11" t="n">
         <v>567.0076014019885</v>
       </c>
       <c r="M11" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N11" t="n">
         <v>1135.28612147837</v>
@@ -5065,7 +5065,7 @@
         <v>1754.652407274058</v>
       </c>
       <c r="R11" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S11" t="n">
         <v>1715.900911697253</v>
@@ -5074,19 +5074,19 @@
         <v>1715.900911697253</v>
       </c>
       <c r="U11" t="n">
-        <v>1715.900911697253</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="V11" t="n">
-        <v>1715.900911697253</v>
+        <v>1459.013945088816</v>
       </c>
       <c r="W11" t="n">
-        <v>1715.900911697253</v>
+        <v>1075.253644223984</v>
       </c>
       <c r="X11" t="n">
-        <v>1664.510379076034</v>
+        <v>728.3952479571988</v>
       </c>
       <c r="Y11" t="n">
-        <v>1263.573706024124</v>
+        <v>327.4585749052889</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>460.4070108036227</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C12" t="n">
-        <v>326.4119395525684</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D12" t="n">
-        <v>310.3632570568685</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E12" t="n">
         <v>310.3632570568685</v>
@@ -5126,46 +5126,46 @@
         <v>221.0510332309565</v>
       </c>
       <c r="L12" t="n">
-        <v>666.9852565295223</v>
+        <v>412.4704258219193</v>
       </c>
       <c r="M12" t="n">
-        <v>1080.357628918229</v>
+        <v>643.6873599158794</v>
       </c>
       <c r="N12" t="n">
-        <v>1323.529688441074</v>
+        <v>886.8594194387241</v>
       </c>
       <c r="O12" t="n">
-        <v>1536.985598331011</v>
+        <v>1100.315329328662</v>
       </c>
       <c r="P12" t="n">
-        <v>1700.472892794594</v>
+        <v>1263.802623792245</v>
       </c>
       <c r="Q12" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R12" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S12" t="n">
         <v>1715.3211652896</v>
       </c>
       <c r="T12" t="n">
-        <v>1560.657138987659</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.382680207124</v>
+        <v>1518.046706509065</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.671153200158</v>
+        <v>1304.335179502099</v>
       </c>
       <c r="W12" t="n">
-        <v>936.4379849364865</v>
+        <v>1091.102011238428</v>
       </c>
       <c r="X12" t="n">
-        <v>760.1120030753793</v>
+        <v>914.7760293773208</v>
       </c>
       <c r="Y12" t="n">
-        <v>600.7100434392094</v>
+        <v>755.3740697411508</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5316553253517</v>
+        <v>362.6282466447789</v>
       </c>
       <c r="C13" t="n">
-        <v>526.4382828870682</v>
+        <v>362.6282466447789</v>
       </c>
       <c r="D13" t="n">
-        <v>366.9436382099783</v>
+        <v>203.1336019676889</v>
       </c>
       <c r="E13" t="n">
-        <v>366.9436382099783</v>
+        <v>203.1336019676889</v>
       </c>
       <c r="F13" t="n">
-        <v>202.3125123205695</v>
+        <v>203.1336019676889</v>
       </c>
       <c r="G13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.85617839851861</v>
       </c>
       <c r="H13" t="n">
-        <v>36.03508875139925</v>
+        <v>36.85617839851861</v>
       </c>
       <c r="I13" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J13" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K13" t="n">
-        <v>111.5999293467747</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L13" t="n">
-        <v>462.6758375186926</v>
+        <v>752.5050448016083</v>
       </c>
       <c r="M13" t="n">
-        <v>901.421883119621</v>
+        <v>846.2847408882512</v>
       </c>
       <c r="N13" t="n">
-        <v>1328.188307080745</v>
+        <v>941.0168634017899</v>
       </c>
       <c r="O13" t="n">
-        <v>1722.536713467444</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P13" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.374954878931</v>
       </c>
       <c r="Q13" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="R13" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S13" t="n">
-        <v>1801.754437569963</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T13" t="n">
-        <v>1801.754437569963</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="U13" t="n">
-        <v>1627.380586962073</v>
+        <v>1566.362923341979</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.380586962073</v>
+        <v>1292.477178281501</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.310922470948</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="X13" t="n">
-        <v>1109.967060330631</v>
+        <v>775.0636516500585</v>
       </c>
       <c r="Y13" t="n">
-        <v>885.2313617193961</v>
+        <v>550.3279530388232</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>904.7430589808534</v>
+        <v>530.5605399494642</v>
       </c>
       <c r="C14" t="n">
-        <v>494.6184682941235</v>
+        <v>530.5605399494642</v>
       </c>
       <c r="D14" t="n">
-        <v>494.6184682941235</v>
+        <v>126.0966100425247</v>
       </c>
       <c r="E14" t="n">
-        <v>494.6184682941235</v>
+        <v>126.0966100425247</v>
       </c>
       <c r="F14" t="n">
-        <v>494.6184682941235</v>
+        <v>126.0966100425247</v>
       </c>
       <c r="G14" t="n">
-        <v>327.4585749052889</v>
+        <v>38.7640057659647</v>
       </c>
       <c r="H14" t="n">
-        <v>38.76400576596473</v>
+        <v>38.7640057659647</v>
       </c>
       <c r="I14" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J14" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K14" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L14" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019886</v>
       </c>
       <c r="M14" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N14" t="n">
         <v>1135.28612147837</v>
@@ -5299,10 +5299,10 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q14" t="n">
-        <v>1754.652407274058</v>
+        <v>1754.652407274059</v>
       </c>
       <c r="R14" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S14" t="n">
         <v>1715.900911697253</v>
@@ -5317,13 +5317,13 @@
         <v>1715.900911697253</v>
       </c>
       <c r="W14" t="n">
-        <v>1715.900911697253</v>
+        <v>1332.140610832422</v>
       </c>
       <c r="X14" t="n">
-        <v>1715.900911697253</v>
+        <v>931.4972130013741</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.964238645343</v>
+        <v>530.5605399494642</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>460.4070108036225</v>
+        <v>657.6814695841571</v>
       </c>
       <c r="C15" t="n">
-        <v>326.4119395525682</v>
+        <v>523.6863983331027</v>
       </c>
       <c r="D15" t="n">
-        <v>209.5147817719606</v>
+        <v>406.7892405524951</v>
       </c>
       <c r="E15" t="n">
-        <v>89.02196576428858</v>
+        <v>286.2964245448231</v>
       </c>
       <c r="F15" t="n">
-        <v>36.03508875139925</v>
+        <v>177.3365447273277</v>
       </c>
       <c r="G15" t="n">
-        <v>36.03508875139925</v>
+        <v>71.50698367661683</v>
       </c>
       <c r="H15" t="n">
         <v>36.03508875139925</v>
@@ -5372,37 +5372,37 @@
         <v>1149.35456216305</v>
       </c>
       <c r="O15" t="n">
-        <v>1536.985598331011</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P15" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.297766516571</v>
       </c>
       <c r="Q15" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R15" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S15" t="n">
         <v>1715.3211652896</v>
       </c>
       <c r="T15" t="n">
-        <v>1560.657138987658</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.382680207124</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.671153200158</v>
+        <v>1346.945611980692</v>
       </c>
       <c r="W15" t="n">
-        <v>936.4379849364863</v>
+        <v>1133.712443717021</v>
       </c>
       <c r="X15" t="n">
-        <v>760.1120030753791</v>
+        <v>957.3864618559137</v>
       </c>
       <c r="Y15" t="n">
-        <v>600.7100434392091</v>
+        <v>797.9845022197437</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>755.5770700190609</v>
+        <v>594.3443488648462</v>
       </c>
       <c r="C16" t="n">
-        <v>584.4836975807774</v>
+        <v>423.2509764265627</v>
       </c>
       <c r="D16" t="n">
-        <v>424.9890529036874</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0782377720069</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="F16" t="n">
-        <v>264.0782377720069</v>
+        <v>343.2694018772038</v>
       </c>
       <c r="G16" t="n">
-        <v>264.0782377720069</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H16" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I16" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J16" t="n">
-        <v>52.53617997680181</v>
+        <v>85.48887828512312</v>
       </c>
       <c r="K16" t="n">
-        <v>317.8801229324888</v>
+        <v>350.8328212408101</v>
       </c>
       <c r="L16" t="n">
-        <v>719.5523464932869</v>
+        <v>752.5050448016083</v>
       </c>
       <c r="M16" t="n">
-        <v>813.3320425799299</v>
+        <v>846.2847408882512</v>
       </c>
       <c r="N16" t="n">
-        <v>941.0168634017899</v>
+        <v>941.01686340179</v>
       </c>
       <c r="O16" t="n">
-        <v>1335.365269788488</v>
+        <v>1335.365269788489</v>
       </c>
       <c r="P16" t="n">
         <v>1656.374954878931</v>
       </c>
       <c r="Q16" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="R16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="T16" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="U16" t="n">
-        <v>1760.229876346689</v>
+        <v>1519.00936107092</v>
       </c>
       <c r="V16" t="n">
-        <v>1685.426001655783</v>
+        <v>1245.123616010442</v>
       </c>
       <c r="W16" t="n">
-        <v>1406.356337164657</v>
+        <v>1245.123616010442</v>
       </c>
       <c r="X16" t="n">
-        <v>1168.012475024341</v>
+        <v>1006.779753870126</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.2767764131053</v>
+        <v>782.0440552588906</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.03508875139925</v>
+        <v>904.7430589808534</v>
       </c>
       <c r="C17" t="n">
-        <v>36.03508875139925</v>
+        <v>494.6184682941235</v>
       </c>
       <c r="D17" t="n">
-        <v>36.03508875139925</v>
+        <v>90.15453838718406</v>
       </c>
       <c r="E17" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="F17" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="G17" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H17" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I17" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J17" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K17" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L17" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M17" t="n">
-        <v>847.9396778919405</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N17" t="n">
         <v>1135.28612147837</v>
@@ -5548,19 +5548,19 @@
         <v>1715.900911697253</v>
       </c>
       <c r="U17" t="n">
-        <v>1459.013945088816</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="V17" t="n">
-        <v>1221.375460499188</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="W17" t="n">
-        <v>837.6151596343566</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="X17" t="n">
-        <v>436.9717618033092</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="Y17" t="n">
-        <v>36.03508875139925</v>
+        <v>1314.964238645343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>615.0710371055642</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C18" t="n">
-        <v>481.0759658545099</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D18" t="n">
-        <v>364.1788080739023</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E18" t="n">
-        <v>243.6859920662303</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F18" t="n">
-        <v>134.7261122487349</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G18" t="n">
         <v>36.03508875139925</v>
@@ -5591,25 +5591,25 @@
         <v>36.03508875139925</v>
       </c>
       <c r="I18" t="n">
-        <v>54.86182750109194</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J18" t="n">
-        <v>326.5523574667915</v>
+        <v>92.64425224016351</v>
       </c>
       <c r="K18" t="n">
-        <v>454.9591384575845</v>
+        <v>221.0510332309565</v>
       </c>
       <c r="L18" t="n">
-        <v>646.3785310485474</v>
+        <v>666.9852565295222</v>
       </c>
       <c r="M18" t="n">
-        <v>877.5954651425075</v>
+        <v>898.2021906234822</v>
       </c>
       <c r="N18" t="n">
-        <v>1323.529688441073</v>
+        <v>1141.374250146327</v>
       </c>
       <c r="O18" t="n">
-        <v>1536.985598331011</v>
+        <v>1354.830160036265</v>
       </c>
       <c r="P18" t="n">
         <v>1700.472892794594</v>
@@ -5624,22 +5624,22 @@
         <v>1715.3211652896</v>
       </c>
       <c r="T18" t="n">
-        <v>1715.3211652896</v>
+        <v>1560.657138987658</v>
       </c>
       <c r="U18" t="n">
-        <v>1518.046706509065</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V18" t="n">
-        <v>1304.335179502099</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W18" t="n">
-        <v>1091.102011238428</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X18" t="n">
-        <v>914.7760293773208</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y18" t="n">
-        <v>755.3740697411508</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1639720248243</v>
+        <v>207.1284611896828</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1639720248243</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="D19" t="n">
-        <v>542.1639720248243</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="E19" t="n">
-        <v>542.1639720248243</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="F19" t="n">
-        <v>430.3556613411772</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G19" t="n">
-        <v>264.0782377720069</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H19" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I19" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J19" t="n">
-        <v>52.53617997680183</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K19" t="n">
-        <v>248.7087649870799</v>
+        <v>176.6012929781111</v>
       </c>
       <c r="L19" t="n">
-        <v>336.401877312855</v>
+        <v>578.2735165389092</v>
       </c>
       <c r="M19" t="n">
-        <v>775.1479229137835</v>
+        <v>1017.019562139838</v>
       </c>
       <c r="N19" t="n">
-        <v>1201.914346874908</v>
+        <v>1443.785986100962</v>
       </c>
       <c r="O19" t="n">
-        <v>1596.262753261606</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P19" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q19" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R19" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S19" t="n">
-        <v>1760.229876346689</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T19" t="n">
-        <v>1524.838362118705</v>
+        <v>1468.872515774689</v>
       </c>
       <c r="U19" t="n">
-        <v>1242.093285619663</v>
+        <v>1186.127439275647</v>
       </c>
       <c r="V19" t="n">
-        <v>968.2075405591852</v>
+        <v>912.2416942151694</v>
       </c>
       <c r="W19" t="n">
-        <v>968.2075405591852</v>
+        <v>633.1720297240438</v>
       </c>
       <c r="X19" t="n">
-        <v>729.8636784188686</v>
+        <v>394.8281675837271</v>
       </c>
       <c r="Y19" t="n">
-        <v>729.8636784188686</v>
+        <v>394.8281675837271</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1267.059114877739</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="C20" t="n">
-        <v>856.9345241910094</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="D20" t="n">
-        <v>856.9345241910094</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="E20" t="n">
-        <v>442.594308707906</v>
+        <v>831.9623238720903</v>
       </c>
       <c r="F20" t="n">
-        <v>442.594308707906</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G20" t="n">
-        <v>36.03508875139925</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H20" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I20" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J20" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802979</v>
       </c>
       <c r="K20" t="n">
-        <v>326.0552168887696</v>
+        <v>326.05521688877</v>
       </c>
       <c r="L20" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019887</v>
       </c>
       <c r="M20" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919404</v>
       </c>
       <c r="N20" t="n">
         <v>1135.28612147837</v>
@@ -5773,31 +5773,31 @@
         <v>1614.212614402881</v>
       </c>
       <c r="Q20" t="n">
-        <v>1754.652407274058</v>
+        <v>1754.652407274059</v>
       </c>
       <c r="R20" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S20" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T20" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.189505963631</v>
       </c>
       <c r="U20" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="V20" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="W20" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="X20" t="n">
-        <v>1677.280294542229</v>
+        <v>1246.302539355194</v>
       </c>
       <c r="Y20" t="n">
-        <v>1677.280294542229</v>
+        <v>1246.302539355194</v>
       </c>
     </row>
     <row r="21">
@@ -5852,25 +5852,25 @@
         <v>1526.29776651657</v>
       </c>
       <c r="Q21" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R21" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="S21" t="n">
-        <v>1781.998430280238</v>
+        <v>1715.3211652896</v>
       </c>
       <c r="T21" t="n">
-        <v>1781.998430280238</v>
+        <v>1560.657138987659</v>
       </c>
       <c r="U21" t="n">
-        <v>1584.723971499704</v>
+        <v>1408.397989638597</v>
       </c>
       <c r="V21" t="n">
-        <v>1371.012444492737</v>
+        <v>1194.68646263163</v>
       </c>
       <c r="W21" t="n">
-        <v>1157.779276229066</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="X21" t="n">
         <v>981.4532943679591</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322.8829771003247</v>
+        <v>294.9665794061331</v>
       </c>
       <c r="C22" t="n">
-        <v>322.8829771003247</v>
+        <v>123.8732069678496</v>
       </c>
       <c r="D22" t="n">
-        <v>322.8829771003247</v>
+        <v>123.8732069678496</v>
       </c>
       <c r="E22" t="n">
-        <v>161.9721619686442</v>
+        <v>123.8732069678496</v>
       </c>
       <c r="F22" t="n">
-        <v>161.9721619686442</v>
+        <v>123.8732069678496</v>
       </c>
       <c r="G22" t="n">
-        <v>161.9721619686442</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H22" t="n">
         <v>36.03508875139925</v>
@@ -5910,52 +5910,52 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J22" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6012929781111</v>
+        <v>145.072479999062</v>
       </c>
       <c r="L22" t="n">
-        <v>264.2944053038862</v>
+        <v>546.7447035598601</v>
       </c>
       <c r="M22" t="n">
-        <v>703.0404509048146</v>
+        <v>640.5243996465031</v>
       </c>
       <c r="N22" t="n">
-        <v>1129.806874865939</v>
+        <v>1067.290823607627</v>
       </c>
       <c r="O22" t="n">
-        <v>1524.155281252637</v>
+        <v>1461.639229994326</v>
       </c>
       <c r="P22" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q22" t="n">
-        <v>1801.754437569962</v>
+        <v>1801.754437569963</v>
       </c>
       <c r="R22" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S22" t="n">
-        <v>1632.318839519271</v>
+        <v>1590.794278295998</v>
       </c>
       <c r="T22" t="n">
-        <v>1396.927325291287</v>
+        <v>1355.402764068014</v>
       </c>
       <c r="U22" t="n">
-        <v>1114.182248792245</v>
+        <v>1072.657687568972</v>
       </c>
       <c r="V22" t="n">
-        <v>840.296503731767</v>
+        <v>798.771942508494</v>
       </c>
       <c r="W22" t="n">
-        <v>561.2268392406413</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="X22" t="n">
-        <v>322.8829771003247</v>
+        <v>519.7022780173684</v>
       </c>
       <c r="Y22" t="n">
-        <v>322.8829771003247</v>
+        <v>294.9665794061331</v>
       </c>
     </row>
     <row r="23">
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>990.5965848535632</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="C23" t="n">
-        <v>990.5965848535632</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="D23" t="n">
-        <v>990.5965848535632</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="E23" t="n">
-        <v>990.5965848535632</v>
+        <v>1155.048206908108</v>
       </c>
       <c r="F23" t="n">
-        <v>569.5661728072507</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G23" t="n">
-        <v>324.7296578907234</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H23" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I23" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J23" t="n">
-        <v>143.8778192802975</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K23" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L23" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M23" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N23" t="n">
         <v>1135.28612147837</v>
@@ -6016,25 +6016,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S23" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T23" t="n">
-        <v>1801.754437569962</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U23" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V23" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W23" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="X23" t="n">
-        <v>1801.754437569962</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="Y23" t="n">
-        <v>1400.817764518053</v>
+        <v>1246.302539355193</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>615.0710371055642</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C24" t="n">
-        <v>481.0759658545099</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D24" t="n">
-        <v>364.1788080739023</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E24" t="n">
-        <v>243.6859920662303</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F24" t="n">
-        <v>134.7261122487349</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="G24" t="n">
-        <v>95.57381618866216</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H24" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I24" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J24" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K24" t="n">
-        <v>239.8777719806492</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L24" t="n">
-        <v>431.297164571612</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M24" t="n">
-        <v>723.4930578498861</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N24" t="n">
-        <v>966.6651173727308</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O24" t="n">
-        <v>1180.121027262669</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P24" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q24" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R24" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T24" t="n">
-        <v>1715.3211652896</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U24" t="n">
-        <v>1518.046706509065</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V24" t="n">
-        <v>1304.335179502099</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W24" t="n">
-        <v>1091.102011238428</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X24" t="n">
-        <v>914.7760293773208</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y24" t="n">
-        <v>755.3740697411508</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="25">
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>526.4382828870682</v>
+        <v>698.9478257799423</v>
       </c>
       <c r="C25" t="n">
-        <v>526.4382828870682</v>
+        <v>527.8544533416588</v>
       </c>
       <c r="D25" t="n">
-        <v>366.9436382099783</v>
+        <v>527.8544533416588</v>
       </c>
       <c r="E25" t="n">
-        <v>366.9436382099783</v>
+        <v>366.9436382099782</v>
       </c>
       <c r="F25" t="n">
         <v>202.3125123205695</v>
       </c>
       <c r="G25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I25" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J25" t="n">
-        <v>52.53617997680181</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K25" t="n">
         <v>111.5999293467747</v>
       </c>
       <c r="L25" t="n">
-        <v>462.6758375186921</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M25" t="n">
-        <v>901.4218831196206</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N25" t="n">
-        <v>1328.188307080745</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O25" t="n">
         <v>1722.536713467443</v>
       </c>
       <c r="P25" t="n">
-        <v>1782.648915084768</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q25" t="n">
         <v>1801.754437569962</v>
@@ -6174,25 +6174,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T25" t="n">
-        <v>1801.754437569962</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U25" t="n">
-        <v>1730.172959584268</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="V25" t="n">
-        <v>1456.28721452379</v>
+        <v>1123.041580230809</v>
       </c>
       <c r="W25" t="n">
-        <v>1177.217550032665</v>
+        <v>923.6835243911776</v>
       </c>
       <c r="X25" t="n">
-        <v>938.8736878923479</v>
+        <v>923.6835243911776</v>
       </c>
       <c r="Y25" t="n">
-        <v>714.1379892811126</v>
+        <v>698.9478257799423</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>581.6751127333364</v>
+        <v>1138.481724768735</v>
       </c>
       <c r="C26" t="n">
-        <v>581.6751127333364</v>
+        <v>1138.481724768735</v>
       </c>
       <c r="D26" t="n">
-        <v>581.6751127333364</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="E26" t="n">
-        <v>581.6751127333364</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="F26" t="n">
-        <v>160.6447006870239</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G26" t="n">
-        <v>160.6447006870239</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H26" t="n">
         <v>38.76400576596473</v>
@@ -6226,13 +6226,13 @@
         <v>36.03508875139925</v>
       </c>
       <c r="J26" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K26" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887698</v>
       </c>
       <c r="L26" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M26" t="n">
         <v>847.9396778919402</v>
@@ -6253,25 +6253,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S26" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697253</v>
       </c>
       <c r="T26" t="n">
-        <v>1589.04303183634</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U26" t="n">
-        <v>1332.156065227903</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V26" t="n">
-        <v>982.3185105643838</v>
+        <v>1138.481724768735</v>
       </c>
       <c r="W26" t="n">
-        <v>982.3185105643838</v>
+        <v>1138.481724768735</v>
       </c>
       <c r="X26" t="n">
-        <v>581.6751127333364</v>
+        <v>1138.481724768735</v>
       </c>
       <c r="Y26" t="n">
-        <v>581.6751127333364</v>
+        <v>1138.481724768735</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>460.4070108036225</v>
+        <v>546.8402830839849</v>
       </c>
       <c r="C27" t="n">
-        <v>326.4119395525682</v>
+        <v>412.8452118329306</v>
       </c>
       <c r="D27" t="n">
-        <v>209.5147817719606</v>
+        <v>295.948054052323</v>
       </c>
       <c r="E27" t="n">
-        <v>89.02196576428858</v>
+        <v>175.455238044651</v>
       </c>
       <c r="F27" t="n">
-        <v>89.02196576428858</v>
+        <v>66.49535822715558</v>
       </c>
       <c r="G27" t="n">
-        <v>89.02196576428858</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H27" t="n">
         <v>36.03508875139925</v>
@@ -6305,52 +6305,52 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J27" t="n">
-        <v>172.4499501741702</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K27" t="n">
-        <v>300.8567311649632</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L27" t="n">
-        <v>492.2761237559261</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M27" t="n">
-        <v>723.4930578498861</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N27" t="n">
-        <v>966.6651173727308</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O27" t="n">
-        <v>1180.121027262669</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P27" t="n">
-        <v>1343.608321726251</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q27" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R27" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T27" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U27" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V27" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W27" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216849</v>
       </c>
       <c r="X27" t="n">
-        <v>760.1120030753791</v>
+        <v>846.5452753557415</v>
       </c>
       <c r="Y27" t="n">
-        <v>600.7100434392091</v>
+        <v>687.1433157195715</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>871.9055059332404</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="C28" t="n">
-        <v>700.8121334949569</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="D28" t="n">
-        <v>541.3174888178669</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="E28" t="n">
-        <v>380.4066736861864</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="F28" t="n">
-        <v>215.7755477967776</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="G28" t="n">
-        <v>123.1213482153726</v>
+        <v>176.9919783080336</v>
       </c>
       <c r="H28" t="n">
-        <v>123.1213482153726</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I28" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J28" t="n">
-        <v>117.5375436081382</v>
+        <v>85.48887828512312</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6012929781111</v>
+        <v>350.8328212408101</v>
       </c>
       <c r="L28" t="n">
-        <v>264.2944053038862</v>
+        <v>752.5050448016083</v>
       </c>
       <c r="M28" t="n">
-        <v>703.0404509048146</v>
+        <v>846.2847408882512</v>
       </c>
       <c r="N28" t="n">
-        <v>1129.806874865939</v>
+        <v>941.0168634017899</v>
       </c>
       <c r="O28" t="n">
-        <v>1524.155281252637</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P28" t="n">
         <v>1656.374954878931</v>
@@ -6408,28 +6408,28 @@
         <v>1801.754437569962</v>
       </c>
       <c r="R28" t="n">
-        <v>1801.754437569962</v>
+        <v>1780.749295122626</v>
       </c>
       <c r="S28" t="n">
-        <v>1801.754437569962</v>
+        <v>1780.749295122626</v>
       </c>
       <c r="T28" t="n">
-        <v>1801.754437569962</v>
+        <v>1545.357780894642</v>
       </c>
       <c r="U28" t="n">
-        <v>1801.754437569962</v>
+        <v>1545.357780894642</v>
       </c>
       <c r="V28" t="n">
-        <v>1801.754437569962</v>
+        <v>1271.472035834164</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.684773078837</v>
+        <v>992.4023713430386</v>
       </c>
       <c r="X28" t="n">
-        <v>1284.34091093852</v>
+        <v>754.058509202722</v>
       </c>
       <c r="Y28" t="n">
-        <v>1059.605212327285</v>
+        <v>529.3228105914867</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>327.4585749052889</v>
+        <v>845.6591415241455</v>
       </c>
       <c r="C29" t="n">
-        <v>327.4585749052889</v>
+        <v>845.6591415241455</v>
       </c>
       <c r="D29" t="n">
-        <v>327.4585749052889</v>
+        <v>845.6591415241455</v>
       </c>
       <c r="E29" t="n">
-        <v>327.4585749052889</v>
+        <v>845.6591415241455</v>
       </c>
       <c r="F29" t="n">
-        <v>327.4585749052889</v>
+        <v>424.6287294778331</v>
       </c>
       <c r="G29" t="n">
         <v>327.4585749052889</v>
       </c>
       <c r="H29" t="n">
-        <v>38.76400576596473</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I29" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J29" t="n">
-        <v>143.8778192802974</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K29" t="n">
-        <v>326.0552168887696</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L29" t="n">
-        <v>567.0076014019883</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M29" t="n">
-        <v>847.9396778919401</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N29" t="n">
         <v>1135.28612147837</v>
@@ -6481,7 +6481,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P29" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q29" t="n">
         <v>1754.652407274058</v>
@@ -6490,25 +6490,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S29" t="n">
-        <v>1735.763167060202</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T29" t="n">
-        <v>1735.763167060202</v>
+        <v>1503.18950596363</v>
       </c>
       <c r="U29" t="n">
-        <v>1478.876200451765</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="V29" t="n">
-        <v>1129.038645788246</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="W29" t="n">
-        <v>1129.038645788246</v>
+        <v>1246.302539355193</v>
       </c>
       <c r="X29" t="n">
-        <v>728.3952479571988</v>
+        <v>845.6591415241455</v>
       </c>
       <c r="Y29" t="n">
-        <v>327.4585749052889</v>
+        <v>845.6591415241455</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>636.7329926647296</v>
+        <v>546.8402830839844</v>
       </c>
       <c r="C30" t="n">
-        <v>502.7379214136753</v>
+        <v>412.8452118329301</v>
       </c>
       <c r="D30" t="n">
-        <v>385.8407636330678</v>
+        <v>295.9480540523226</v>
       </c>
       <c r="E30" t="n">
-        <v>265.3479476253957</v>
+        <v>175.4552380446505</v>
       </c>
       <c r="F30" t="n">
-        <v>156.3880678079003</v>
+        <v>66.49535822715512</v>
       </c>
       <c r="G30" t="n">
-        <v>50.55850675718939</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H30" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I30" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J30" t="n">
-        <v>208.8664913569036</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2732723476965</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L30" t="n">
-        <v>528.6926649386594</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M30" t="n">
-        <v>759.9095990326194</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N30" t="n">
-        <v>1003.081658555464</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O30" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P30" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q30" t="n">
-        <v>1701.572828547836</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R30" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T30" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.09041126802</v>
       </c>
       <c r="U30" t="n">
-        <v>1363.382680207124</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V30" t="n">
-        <v>1149.671153200158</v>
+        <v>1236.104425480519</v>
       </c>
       <c r="W30" t="n">
-        <v>936.4379849364863</v>
+        <v>1022.871257216848</v>
       </c>
       <c r="X30" t="n">
-        <v>936.4379849364863</v>
+        <v>846.5452753557411</v>
       </c>
       <c r="Y30" t="n">
-        <v>777.0360253003163</v>
+        <v>687.1433157195711</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>858.4424704570324</v>
+        <v>693.8113445676236</v>
       </c>
       <c r="C31" t="n">
-        <v>687.3490980187489</v>
+        <v>522.7179721293401</v>
       </c>
       <c r="D31" t="n">
-        <v>527.8544533416589</v>
+        <v>363.22332745225</v>
       </c>
       <c r="E31" t="n">
-        <v>366.9436382099783</v>
+        <v>202.3125123205695</v>
       </c>
       <c r="F31" t="n">
         <v>202.3125123205695</v>
       </c>
       <c r="G31" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H31" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I31" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J31" t="n">
-        <v>56.11714053354363</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K31" t="n">
-        <v>115.1808899035165</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L31" t="n">
-        <v>516.8531134643147</v>
+        <v>462.6758375186917</v>
       </c>
       <c r="M31" t="n">
-        <v>955.5991590652432</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N31" t="n">
-        <v>1382.365583026367</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O31" t="n">
-        <v>1461.639229994325</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P31" t="n">
-        <v>1782.648915084768</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q31" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R31" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S31" t="n">
-        <v>1590.794278295998</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T31" t="n">
-        <v>1509.221737602629</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="U31" t="n">
-        <v>1509.221737602629</v>
+        <v>1566.362923341978</v>
       </c>
       <c r="V31" t="n">
-        <v>1509.221737602629</v>
+        <v>1292.4771782815</v>
       </c>
       <c r="W31" t="n">
-        <v>1509.221737602629</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="X31" t="n">
-        <v>1270.877875462312</v>
+        <v>1013.407513790375</v>
       </c>
       <c r="Y31" t="n">
-        <v>1046.142176851077</v>
+        <v>788.6718151791393</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1688.089526924052</v>
+        <v>853.3525263596341</v>
       </c>
       <c r="C32" t="n">
-        <v>1277.964936237322</v>
+        <v>443.2279356729042</v>
       </c>
       <c r="D32" t="n">
-        <v>1277.964936237322</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="E32" t="n">
-        <v>863.6247207542185</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="F32" t="n">
-        <v>442.594308707906</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="G32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H32" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I32" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J32" t="n">
         <v>143.8778192802977</v>
@@ -6709,16 +6709,16 @@
         <v>567.0076014019885</v>
       </c>
       <c r="M32" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919397</v>
       </c>
       <c r="N32" t="n">
         <v>1135.28612147837</v>
       </c>
       <c r="O32" t="n">
-        <v>1401.21843916599</v>
+        <v>1401.218439165989</v>
       </c>
       <c r="P32" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q32" t="n">
         <v>1754.652407274058</v>
@@ -6730,22 +6730,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T32" t="n">
-        <v>1801.754437569962</v>
+        <v>1637.756225055513</v>
       </c>
       <c r="U32" t="n">
-        <v>1801.754437569962</v>
+        <v>1637.756225055513</v>
       </c>
       <c r="V32" t="n">
-        <v>1688.089526924052</v>
+        <v>1637.756225055513</v>
       </c>
       <c r="W32" t="n">
-        <v>1688.089526924052</v>
+        <v>1253.995924190682</v>
       </c>
       <c r="X32" t="n">
-        <v>1688.089526924052</v>
+        <v>853.3525263596341</v>
       </c>
       <c r="Y32" t="n">
-        <v>1688.089526924052</v>
+        <v>853.3525263596341</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>546.8402830839849</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C33" t="n">
-        <v>412.8452118329306</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D33" t="n">
-        <v>371.3173456272776</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E33" t="n">
-        <v>250.8245296196056</v>
+        <v>144.9949685688946</v>
       </c>
       <c r="F33" t="n">
-        <v>141.8646498021101</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="G33" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H33" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I33" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J33" t="n">
-        <v>111.4709909898562</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K33" t="n">
-        <v>239.8777719806492</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L33" t="n">
-        <v>685.8119952792149</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M33" t="n">
-        <v>917.0289293731749</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N33" t="n">
-        <v>1160.20098889602</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O33" t="n">
-        <v>1373.656898785957</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P33" t="n">
-        <v>1700.472892794594</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q33" t="n">
-        <v>1789.542545024817</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R33" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S33" t="n">
-        <v>1801.754437569962</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T33" t="n">
-        <v>1647.090411268021</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U33" t="n">
-        <v>1449.815952487486</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V33" t="n">
-        <v>1236.10442548052</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W33" t="n">
-        <v>1022.871257216849</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X33" t="n">
-        <v>846.5452753557415</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y33" t="n">
-        <v>687.1433157195715</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>598.0197608727625</v>
+        <v>567.3940858513074</v>
       </c>
       <c r="C34" t="n">
-        <v>426.926388434479</v>
+        <v>396.3007134130239</v>
       </c>
       <c r="D34" t="n">
-        <v>361.5770297724885</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="E34" t="n">
-        <v>200.666214640808</v>
+        <v>341.6231041974423</v>
       </c>
       <c r="F34" t="n">
-        <v>36.03508875139925</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="G34" t="n">
-        <v>36.03508875139925</v>
+        <v>176.9919783080335</v>
       </c>
       <c r="H34" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I34" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J34" t="n">
-        <v>52.53617997680181</v>
+        <v>117.5375436081382</v>
       </c>
       <c r="K34" t="n">
-        <v>317.8801229324888</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L34" t="n">
-        <v>405.5732352582639</v>
+        <v>470.5745988896003</v>
       </c>
       <c r="M34" t="n">
-        <v>844.3192808591923</v>
+        <v>846.2847408882508</v>
       </c>
       <c r="N34" t="n">
-        <v>1271.085704820317</v>
+        <v>941.0168634017895</v>
       </c>
       <c r="O34" t="n">
-        <v>1665.434111207015</v>
+        <v>1335.365269788488</v>
       </c>
       <c r="P34" t="n">
-        <v>1782.648915084768</v>
+        <v>1656.37495487893</v>
       </c>
       <c r="Q34" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R34" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S34" t="n">
-        <v>1801.754437569962</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="T34" t="n">
-        <v>1801.754437569962</v>
+        <v>1590.794278295997</v>
       </c>
       <c r="U34" t="n">
-        <v>1801.754437569962</v>
+        <v>1308.049201796955</v>
       </c>
       <c r="V34" t="n">
-        <v>1527.868692509484</v>
+        <v>1034.163456736477</v>
       </c>
       <c r="W34" t="n">
-        <v>1248.799028018359</v>
+        <v>755.0937922453518</v>
       </c>
       <c r="X34" t="n">
-        <v>1010.455165878042</v>
+        <v>755.0937922453518</v>
       </c>
       <c r="Y34" t="n">
-        <v>785.7194672668069</v>
+        <v>755.0937922453518</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>342.4873738045737</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="C35" t="n">
-        <v>342.4873738045737</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="D35" t="n">
-        <v>342.4873738045737</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="E35" t="n">
-        <v>342.4873738045737</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="F35" t="n">
-        <v>342.4873738045737</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="G35" t="n">
-        <v>38.76400576596472</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H35" t="n">
-        <v>38.76400576596472</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I35" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J35" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K35" t="n">
-        <v>326.0552168887697</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L35" t="n">
-        <v>567.0076014019885</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M35" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N35" t="n">
         <v>1135.28612147837</v>
@@ -6964,25 +6964,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S35" t="n">
-        <v>1715.900911697252</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T35" t="n">
-        <v>1503.18950596363</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U35" t="n">
-        <v>1503.18950596363</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="V35" t="n">
-        <v>1153.351951300111</v>
+        <v>982.3185105643838</v>
       </c>
       <c r="W35" t="n">
-        <v>1153.351951300111</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="X35" t="n">
-        <v>752.7085534690632</v>
+        <v>734.0177948617957</v>
       </c>
       <c r="Y35" t="n">
-        <v>752.7085534690632</v>
+        <v>734.0177948617957</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>600.7100434392087</v>
+        <v>516.3800136082286</v>
       </c>
       <c r="C36" t="n">
-        <v>466.7149721881544</v>
+        <v>382.3849423571743</v>
       </c>
       <c r="D36" t="n">
-        <v>349.8178144075468</v>
+        <v>265.4877845765667</v>
       </c>
       <c r="E36" t="n">
-        <v>250.8245296196056</v>
+        <v>144.9949685688947</v>
       </c>
       <c r="F36" t="n">
-        <v>141.8646498021101</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="G36" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="H36" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="I36" t="n">
-        <v>36.03508875139924</v>
+        <v>54.86182750109194</v>
       </c>
       <c r="J36" t="n">
-        <v>336.3126562147968</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K36" t="n">
-        <v>569.7515857563242</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L36" t="n">
-        <v>761.170978347287</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M36" t="n">
-        <v>992.3879124412471</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N36" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O36" t="n">
-        <v>1449.015881854029</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P36" t="n">
-        <v>1612.503176317612</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q36" t="n">
-        <v>1701.572828547835</v>
+        <v>1701.572828547836</v>
       </c>
       <c r="R36" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S36" t="n">
-        <v>1715.3211652896</v>
+        <v>1771.294168094206</v>
       </c>
       <c r="T36" t="n">
-        <v>1560.657138987658</v>
+        <v>1616.630141792265</v>
       </c>
       <c r="U36" t="n">
-        <v>1363.382680207123</v>
+        <v>1419.35568301173</v>
       </c>
       <c r="V36" t="n">
-        <v>1149.671153200157</v>
+        <v>1205.644156004764</v>
       </c>
       <c r="W36" t="n">
-        <v>936.4379849364858</v>
+        <v>992.4109877410924</v>
       </c>
       <c r="X36" t="n">
-        <v>760.1120030753787</v>
+        <v>816.0850058799853</v>
       </c>
       <c r="Y36" t="n">
-        <v>600.7100434392087</v>
+        <v>656.6830462438153</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>519.7022780173679</v>
+        <v>921.8544935882312</v>
       </c>
       <c r="C37" t="n">
-        <v>348.6089055790844</v>
+        <v>750.7611211499477</v>
       </c>
       <c r="D37" t="n">
-        <v>348.6089055790844</v>
+        <v>591.2664764728577</v>
       </c>
       <c r="E37" t="n">
-        <v>348.6089055790844</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="F37" t="n">
-        <v>183.9777796896757</v>
+        <v>430.3556613411772</v>
       </c>
       <c r="G37" t="n">
-        <v>176.9919783080335</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="H37" t="n">
-        <v>36.03508875139924</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I37" t="n">
-        <v>36.03508875139924</v>
+        <v>36.03508875139925</v>
       </c>
       <c r="J37" t="n">
         <v>117.5375436081382</v>
       </c>
       <c r="K37" t="n">
-        <v>248.7087649870797</v>
+        <v>382.8814865638252</v>
       </c>
       <c r="L37" t="n">
-        <v>336.4018773128548</v>
+        <v>784.5537101246234</v>
       </c>
       <c r="M37" t="n">
-        <v>775.1479229137833</v>
+        <v>1223.299755725552</v>
       </c>
       <c r="N37" t="n">
-        <v>1201.914346874908</v>
+        <v>1318.031878239091</v>
       </c>
       <c r="O37" t="n">
-        <v>1596.262753261606</v>
+        <v>1712.380284625789</v>
       </c>
       <c r="P37" t="n">
-        <v>1656.37495487893</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q37" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R37" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S37" t="n">
-        <v>1590.794278295997</v>
+        <v>1666.185021541796</v>
       </c>
       <c r="T37" t="n">
-        <v>1355.402764068014</v>
+        <v>1666.185021541796</v>
       </c>
       <c r="U37" t="n">
-        <v>1072.657687568972</v>
+        <v>1383.439945042754</v>
       </c>
       <c r="V37" t="n">
-        <v>798.7719425084936</v>
+        <v>1109.554199982276</v>
       </c>
       <c r="W37" t="n">
-        <v>519.7022780173679</v>
+        <v>1109.554199982276</v>
       </c>
       <c r="X37" t="n">
-        <v>519.7022780173679</v>
+        <v>1109.554199982276</v>
       </c>
       <c r="Y37" t="n">
-        <v>519.7022780173679</v>
+        <v>1109.554199982276</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36.03508875139925</v>
+        <v>1391.533257905473</v>
       </c>
       <c r="C38" t="n">
-        <v>36.03508875139925</v>
+        <v>981.4086672187431</v>
       </c>
       <c r="D38" t="n">
-        <v>36.03508875139925</v>
+        <v>981.4086672187431</v>
       </c>
       <c r="E38" t="n">
-        <v>36.03508875139925</v>
+        <v>866.353637768784</v>
       </c>
       <c r="F38" t="n">
-        <v>36.03508875139925</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="H38" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596473</v>
       </c>
       <c r="I38" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J38" t="n">
-        <v>143.8778192802977</v>
+        <v>143.8778192802974</v>
       </c>
       <c r="K38" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887696</v>
       </c>
       <c r="L38" t="n">
-        <v>567.0076014019887</v>
+        <v>567.0076014019883</v>
       </c>
       <c r="M38" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919399</v>
       </c>
       <c r="N38" t="n">
         <v>1135.28612147837</v>
@@ -7207,19 +7207,19 @@
         <v>1801.754437569962</v>
       </c>
       <c r="U38" t="n">
-        <v>1571.213015162707</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="V38" t="n">
-        <v>1221.375460499188</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="W38" t="n">
-        <v>837.6151596343566</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="X38" t="n">
-        <v>436.9717618033092</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="Y38" t="n">
-        <v>36.03508875139925</v>
+        <v>1801.754437569962</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>681.7483020962025</v>
+        <v>575.9187410454915</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7532308451481</v>
+        <v>441.9236697944372</v>
       </c>
       <c r="D39" t="n">
-        <v>430.8560730645405</v>
+        <v>325.0265120138296</v>
       </c>
       <c r="E39" t="n">
-        <v>310.3632570568685</v>
+        <v>204.5336960061576</v>
       </c>
       <c r="F39" t="n">
-        <v>201.4033772393731</v>
+        <v>95.57381618866216</v>
       </c>
       <c r="G39" t="n">
         <v>95.57381618866216</v>
@@ -7253,25 +7253,25 @@
         <v>54.86182750109194</v>
       </c>
       <c r="J39" t="n">
-        <v>123.8173624577589</v>
+        <v>355.1393949644895</v>
       </c>
       <c r="K39" t="n">
-        <v>569.7515857563246</v>
+        <v>483.5461759552825</v>
       </c>
       <c r="L39" t="n">
-        <v>761.1709783472875</v>
+        <v>674.9655685462453</v>
       </c>
       <c r="M39" t="n">
-        <v>992.3879124412475</v>
+        <v>906.1825026402054</v>
       </c>
       <c r="N39" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O39" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P39" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q39" t="n">
         <v>1701.572828547836</v>
@@ -7280,25 +7280,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.3211652896</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="T39" t="n">
-        <v>1560.657138987658</v>
+        <v>1647.090411268021</v>
       </c>
       <c r="U39" t="n">
-        <v>1560.657138987658</v>
+        <v>1449.815952487486</v>
       </c>
       <c r="V39" t="n">
-        <v>1346.945611980692</v>
+        <v>1236.10442548052</v>
       </c>
       <c r="W39" t="n">
-        <v>1157.779276229066</v>
+        <v>1051.949715178355</v>
       </c>
       <c r="X39" t="n">
-        <v>981.4532943679591</v>
+        <v>875.6237333172481</v>
       </c>
       <c r="Y39" t="n">
-        <v>822.0513347317891</v>
+        <v>716.2217736810782</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>858.4424704570324</v>
+        <v>1073.908726280932</v>
       </c>
       <c r="C40" t="n">
-        <v>687.3490980187489</v>
+        <v>902.8153538426482</v>
       </c>
       <c r="D40" t="n">
-        <v>527.8544533416589</v>
+        <v>743.3207091655581</v>
       </c>
       <c r="E40" t="n">
-        <v>366.9436382099783</v>
+        <v>582.4098940338777</v>
       </c>
       <c r="F40" t="n">
-        <v>202.3125123205695</v>
+        <v>417.7787681444689</v>
       </c>
       <c r="G40" t="n">
-        <v>36.03508875139925</v>
+        <v>251.5013445752986</v>
       </c>
       <c r="H40" t="n">
-        <v>36.03508875139925</v>
+        <v>123.1213482153726</v>
       </c>
       <c r="I40" t="n">
         <v>36.03508875139925</v>
       </c>
       <c r="J40" t="n">
-        <v>117.5375436081382</v>
+        <v>52.53617997680181</v>
       </c>
       <c r="K40" t="n">
-        <v>248.7087649870802</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L40" t="n">
-        <v>336.4018773128553</v>
+        <v>462.6758375186921</v>
       </c>
       <c r="M40" t="n">
-        <v>775.1479229137838</v>
+        <v>901.4218831196206</v>
       </c>
       <c r="N40" t="n">
-        <v>1201.914346874908</v>
+        <v>1328.188307080745</v>
       </c>
       <c r="O40" t="n">
-        <v>1596.262753261606</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P40" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084768</v>
       </c>
       <c r="Q40" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R40" t="n">
-        <v>1801.754437569962</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="S40" t="n">
-        <v>1632.318839519271</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="T40" t="n">
-        <v>1549.947539953438</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="U40" t="n">
-        <v>1549.947539953438</v>
+        <v>1760.229876346689</v>
       </c>
       <c r="V40" t="n">
-        <v>1549.947539953438</v>
+        <v>1486.344131286211</v>
       </c>
       <c r="W40" t="n">
-        <v>1270.877875462312</v>
+        <v>1486.344131286211</v>
       </c>
       <c r="X40" t="n">
-        <v>1270.877875462312</v>
+        <v>1486.344131286211</v>
       </c>
       <c r="Y40" t="n">
-        <v>1046.142176851077</v>
+        <v>1261.608432674976</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="C41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.290507663023</v>
+        <v>1162.829202434705</v>
       </c>
       <c r="E41" t="n">
-        <v>982.9502921799196</v>
+        <v>748.4889869516014</v>
       </c>
       <c r="F41" t="n">
-        <v>561.9198801336072</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="G41" t="n">
-        <v>324.7296578907234</v>
+        <v>327.4585749052889</v>
       </c>
       <c r="H41" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I41" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J41" t="n">
         <v>143.8778192802977</v>
       </c>
       <c r="K41" t="n">
-        <v>326.0552168887698</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L41" t="n">
         <v>567.0076014019885</v>
       </c>
       <c r="M41" t="n">
-        <v>847.9396778919403</v>
+        <v>847.9396778919402</v>
       </c>
       <c r="N41" t="n">
         <v>1135.28612147837</v>
@@ -7429,7 +7429,7 @@
         <v>1401.21843916599</v>
       </c>
       <c r="P41" t="n">
-        <v>1614.212614402881</v>
+        <v>1614.21261440288</v>
       </c>
       <c r="Q41" t="n">
         <v>1754.652407274058</v>
@@ -7441,22 +7441,22 @@
         <v>1801.754437569962</v>
       </c>
       <c r="T41" t="n">
-        <v>1801.754437569962</v>
+        <v>1589.04303183634</v>
       </c>
       <c r="U41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="V41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="W41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="X41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
       <c r="Y41" t="n">
-        <v>1801.754437569962</v>
+        <v>1332.156065227903</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>460.4070108036225</v>
+        <v>460.407010803622</v>
       </c>
       <c r="C42" t="n">
-        <v>382.3849423571743</v>
+        <v>326.4119395525677</v>
       </c>
       <c r="D42" t="n">
-        <v>265.4877845765667</v>
+        <v>209.5147817719601</v>
       </c>
       <c r="E42" t="n">
-        <v>144.9949685688947</v>
+        <v>89.02196576428813</v>
       </c>
       <c r="F42" t="n">
-        <v>36.03508875139925</v>
+        <v>89.02196576428813</v>
       </c>
       <c r="G42" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="H42" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I42" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J42" t="n">
-        <v>355.1393949644895</v>
+        <v>355.1393949644894</v>
       </c>
       <c r="K42" t="n">
-        <v>483.5461759552825</v>
+        <v>483.5461759552824</v>
       </c>
       <c r="L42" t="n">
         <v>674.9655685462453</v>
@@ -7502,16 +7502,16 @@
         <v>906.1825026402054</v>
       </c>
       <c r="N42" t="n">
-        <v>1235.559971964092</v>
+        <v>1149.35456216305</v>
       </c>
       <c r="O42" t="n">
-        <v>1449.01588185403</v>
+        <v>1362.810472052988</v>
       </c>
       <c r="P42" t="n">
-        <v>1612.503176317613</v>
+        <v>1526.29776651657</v>
       </c>
       <c r="Q42" t="n">
-        <v>1701.572828547836</v>
+        <v>1701.572828547835</v>
       </c>
       <c r="R42" t="n">
         <v>1801.754437569962</v>
@@ -7523,19 +7523,19 @@
         <v>1560.657138987658</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.382680207124</v>
+        <v>1363.382680207123</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.671153200158</v>
+        <v>1149.671153200157</v>
       </c>
       <c r="W42" t="n">
-        <v>936.4379849364863</v>
+        <v>936.4379849364858</v>
       </c>
       <c r="X42" t="n">
-        <v>760.1120030753791</v>
+        <v>760.1120030753787</v>
       </c>
       <c r="Y42" t="n">
-        <v>600.7100434392091</v>
+        <v>600.7100434392087</v>
       </c>
     </row>
     <row r="43">
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.99097480055</v>
+        <v>933.8477645397348</v>
       </c>
       <c r="C43" t="n">
-        <v>755.8976023622665</v>
+        <v>762.7543921014513</v>
       </c>
       <c r="D43" t="n">
         <v>755.8976023622665</v>
@@ -7566,10 +7566,10 @@
         <v>123.1213482153726</v>
       </c>
       <c r="I43" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J43" t="n">
-        <v>52.53617997680181</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K43" t="n">
         <v>111.5999293467747</v>
@@ -7578,43 +7578,43 @@
         <v>513.2721529075728</v>
       </c>
       <c r="M43" t="n">
-        <v>901.4218831196206</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N43" t="n">
-        <v>1328.188307080745</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O43" t="n">
         <v>1722.536713467443</v>
       </c>
       <c r="P43" t="n">
-        <v>1782.648915084768</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q43" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="R43" t="n">
-        <v>1760.229876346689</v>
+        <v>1801.754437569962</v>
       </c>
       <c r="S43" t="n">
-        <v>1590.794278295998</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T43" t="n">
-        <v>1439.220582001345</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U43" t="n">
-        <v>1439.220582001345</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="V43" t="n">
-        <v>1165.334836940867</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="W43" t="n">
-        <v>1165.334836940867</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="X43" t="n">
-        <v>926.99097480055</v>
+        <v>1158.58346315097</v>
       </c>
       <c r="Y43" t="n">
-        <v>926.99097480055</v>
+        <v>933.8477645397348</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>450.3753042345026</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="C44" t="n">
-        <v>450.3753042345026</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="D44" t="n">
-        <v>450.3753042345026</v>
+        <v>961.5994271267934</v>
       </c>
       <c r="E44" t="n">
-        <v>36.03508875139925</v>
+        <v>547.2592116436902</v>
       </c>
       <c r="F44" t="n">
-        <v>36.03508875139925</v>
+        <v>445.3232257224715</v>
       </c>
       <c r="G44" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="H44" t="n">
-        <v>36.03508875139925</v>
+        <v>38.76400576596472</v>
       </c>
       <c r="I44" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J44" t="n">
-        <v>143.8778192802975</v>
+        <v>143.8778192802977</v>
       </c>
       <c r="K44" t="n">
-        <v>326.0552168887695</v>
+        <v>326.0552168887697</v>
       </c>
       <c r="L44" t="n">
-        <v>567.0076014019884</v>
+        <v>567.0076014019885</v>
       </c>
       <c r="M44" t="n">
-        <v>847.9396778919402</v>
+        <v>847.9396778919403</v>
       </c>
       <c r="N44" t="n">
         <v>1135.28612147837</v>
@@ -7675,25 +7675,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S44" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="T44" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="U44" t="n">
-        <v>1801.754437569962</v>
+        <v>1715.900911697252</v>
       </c>
       <c r="V44" t="n">
-        <v>1801.754437569962</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="W44" t="n">
-        <v>1662.176554781949</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="X44" t="n">
-        <v>1261.533156950902</v>
+        <v>1366.063357033733</v>
       </c>
       <c r="Y44" t="n">
-        <v>860.596483898992</v>
+        <v>1366.063357033733</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>615.0710371055642</v>
+        <v>681.7483020962025</v>
       </c>
       <c r="C45" t="n">
-        <v>481.0759658545099</v>
+        <v>547.7532308451481</v>
       </c>
       <c r="D45" t="n">
-        <v>364.1788080739023</v>
+        <v>430.8560730645405</v>
       </c>
       <c r="E45" t="n">
-        <v>243.6859920662303</v>
+        <v>310.3632570568685</v>
       </c>
       <c r="F45" t="n">
-        <v>134.7261122487349</v>
+        <v>201.403377239373</v>
       </c>
       <c r="G45" t="n">
-        <v>95.57381618866216</v>
+        <v>95.57381618866215</v>
       </c>
       <c r="H45" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="I45" t="n">
-        <v>54.86182750109194</v>
+        <v>54.86182750109193</v>
       </c>
       <c r="J45" t="n">
         <v>111.4709909898562</v>
@@ -7739,40 +7739,40 @@
         <v>662.5140986655721</v>
       </c>
       <c r="N45" t="n">
-        <v>1108.448321964138</v>
+        <v>905.6861581884168</v>
       </c>
       <c r="O45" t="n">
-        <v>1536.985598331011</v>
+        <v>1119.142068078354</v>
       </c>
       <c r="P45" t="n">
-        <v>1700.472892794594</v>
+        <v>1282.629362541937</v>
       </c>
       <c r="Q45" t="n">
-        <v>1789.542545024817</v>
+        <v>1728.563585840503</v>
       </c>
       <c r="R45" t="n">
         <v>1801.754437569962</v>
       </c>
       <c r="S45" t="n">
-        <v>1715.3211652896</v>
+        <v>1781.998430280238</v>
       </c>
       <c r="T45" t="n">
-        <v>1715.3211652896</v>
+        <v>1781.998430280238</v>
       </c>
       <c r="U45" t="n">
-        <v>1518.046706509065</v>
+        <v>1584.723971499704</v>
       </c>
       <c r="V45" t="n">
-        <v>1304.335179502099</v>
+        <v>1371.012444492737</v>
       </c>
       <c r="W45" t="n">
-        <v>1091.102011238428</v>
+        <v>1157.779276229066</v>
       </c>
       <c r="X45" t="n">
-        <v>914.7760293773208</v>
+        <v>981.4532943679591</v>
       </c>
       <c r="Y45" t="n">
-        <v>755.3740697411508</v>
+        <v>822.0513347317891</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1086.48561947764</v>
+        <v>920.2081959084696</v>
       </c>
       <c r="C46" t="n">
-        <v>915.3922470393566</v>
+        <v>749.1148234701861</v>
       </c>
       <c r="D46" t="n">
-        <v>755.8976023622665</v>
+        <v>589.6201787930961</v>
       </c>
       <c r="E46" t="n">
-        <v>594.9867872305859</v>
+        <v>428.7093636614156</v>
       </c>
       <c r="F46" t="n">
-        <v>430.3556613411772</v>
+        <v>264.0782377720069</v>
       </c>
       <c r="G46" t="n">
         <v>264.0782377720069</v>
@@ -7803,28 +7803,28 @@
         <v>123.1213482153726</v>
       </c>
       <c r="I46" t="n">
-        <v>36.03508875139925</v>
+        <v>36.03508875139924</v>
       </c>
       <c r="J46" t="n">
-        <v>117.5375436081382</v>
+        <v>52.5361799768018</v>
       </c>
       <c r="K46" t="n">
-        <v>382.8814865638252</v>
+        <v>111.5999293467747</v>
       </c>
       <c r="L46" t="n">
-        <v>470.5745988896003</v>
+        <v>513.2721529075728</v>
       </c>
       <c r="M46" t="n">
-        <v>909.3206444905288</v>
+        <v>901.4218831196201</v>
       </c>
       <c r="N46" t="n">
-        <v>1004.052767004068</v>
+        <v>1328.188307080744</v>
       </c>
       <c r="O46" t="n">
-        <v>1335.365269788488</v>
+        <v>1722.536713467443</v>
       </c>
       <c r="P46" t="n">
-        <v>1656.374954878931</v>
+        <v>1782.648915084767</v>
       </c>
       <c r="Q46" t="n">
         <v>1801.754437569962</v>
@@ -7833,25 +7833,25 @@
         <v>1801.754437569962</v>
       </c>
       <c r="S46" t="n">
-        <v>1801.754437569962</v>
+        <v>1632.318839519271</v>
       </c>
       <c r="T46" t="n">
-        <v>1801.754437569962</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="U46" t="n">
-        <v>1801.754437569962</v>
+        <v>1396.927325291287</v>
       </c>
       <c r="V46" t="n">
-        <v>1801.754437569962</v>
+        <v>1123.041580230809</v>
       </c>
       <c r="W46" t="n">
-        <v>1737.264886623236</v>
+        <v>1123.041580230809</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.92102448292</v>
+        <v>1123.041580230809</v>
       </c>
       <c r="Y46" t="n">
-        <v>1274.185325871684</v>
+        <v>1107.907902302514</v>
       </c>
     </row>
   </sheetData>
@@ -8774,10 +8774,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>257.0856875834373</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>183.9953922169156</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>352.2227803286546</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>266.0432281274169</v>
+        <v>284.7782281939475</v>
       </c>
       <c r="M13" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>175.9344709879023</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>87.07617151620414</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.28555384678918</v>
       </c>
       <c r="K16" t="n">
         <v>208.3638319047618</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>33.28555384678921</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>318.2573327462026</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>0.7485506060653648</v>
       </c>
       <c r="J18" t="n">
-        <v>217.2539055322578</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>257.0856875834372</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>204.8102664401221</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>183.9953922169155</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>138.4937733740456</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
@@ -9336,13 +9336,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O19" t="n">
-        <v>318.2573327462026</v>
+        <v>201.492000402549</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>175.9344709879023</v>
+        <v>87.0761715162044</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>33.81065722453259</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M22" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>335.3881832803894</v>
@@ -9576,10 +9576,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P22" t="n">
-        <v>72.83583031208987</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>61.59490826698391</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>360.4692637053964</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>266.0432281274165</v>
+        <v>266.043228127416</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9953,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>61.59490826698387</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>360.4692637053964</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>65.65794306195595</v>
+        <v>33.2855538467892</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>72.83583031208985</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>127.5494547533709</v>
@@ -10190,7 +10190,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>98.37929330004783</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.8265792006343</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R30" t="n">
         <v>88.85829947169823</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.617131875496781</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>317.1506174091142</v>
+        <v>266.043228127416</v>
       </c>
       <c r="M31" t="n">
         <v>348.4508580952379</v>
@@ -10284,10 +10284,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>257.0856875834372</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>164.9784843889432</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
         <v>208.3638319047618</v>
@@ -10515,19 +10515,19 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>284.778228193947</v>
       </c>
       <c r="N34" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
-        <v>57.67939622265491</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7485506060653648</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>106.0930793441761</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10746,25 +10746,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>72.83583031208957</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>10.25901903197418</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10901,10 +10901,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>12.47108229081081</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>320.7347902098714</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>87.07617151620417</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>72.83583031209002</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>266.0432281274165</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>87.07617151620417</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>87.07617151620369</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11226,7 +11226,7 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>297.3434688135402</v>
+        <v>297.3434688135397</v>
       </c>
       <c r="N43" t="n">
         <v>335.3881832803894</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>204.8102664401222</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>217.253905532258</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>360.4692637053963</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>61.59490826698383</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
-        <v>348.4508580952379</v>
+        <v>297.3434688135397</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O46" t="n">
-        <v>254.584702844912</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -23275,7 +23275,7 @@
         <v>402.4936277569416</v>
       </c>
       <c r="H11" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,16 +23314,16 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>345.7603365577298</v>
+        <v>53.24715154861929</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23336,16 +23336,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>66.01049234073186</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>99.83999053205859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>153.1173860389223</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>139.5473206610679</v>
       </c>
       <c r="I13" t="n">
-        <v>86.2153968693336</v>
+        <v>85.40251811868544</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>167.7412420701844</v>
       </c>
       <c r="T13" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>107.2875136322414</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23509,10 +23509,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>237.0053333019954</v>
+        <v>316.0343495231472</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>285.807623447931</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,10 +23557,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23585,13 +23585,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>55.41327277656003</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>104.7712654402038</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>58.94334016289027</v>
+        <v>23.82616418692487</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3017141927292</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>78.7179394264538</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6146493334786</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.21539686933359</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>41.10931561104032</v>
       </c>
       <c r="S16" t="n">
         <v>167.7412420701844</v>
@@ -23709,13 +23709,13 @@
         <v>233.0375990857039</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>197.0910516658759</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>359.3201860332651</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23752,7 +23752,7 @@
         <v>285.807623447931</v>
       </c>
       <c r="I17" t="n">
-        <v>2.701627844419789</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,16 +23788,16 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V17" t="n">
-        <v>111.0770793731527</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7.067152177841535</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H18" t="n">
         <v>58.94334016289027</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>55.41327277656015</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -23901,16 +23901,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>52.29458705370408</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S19" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>71.22573857856813</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>319.8550242056576</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -24034,7 +24034,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>273.4075622552807</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24098,13 +24098,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>66.01049234073169</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>44.56515633715782</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.6146493334786</v>
+        <v>77.65491229919277</v>
       </c>
       <c r="H22" t="n">
-        <v>14.86961817599548</v>
+        <v>139.5473206610679</v>
       </c>
       <c r="I22" t="n">
         <v>86.2153968693336</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -24214,19 +24214,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>319.8550242056583</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>160.1054779895796</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -24274,7 +24274,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24296,10 +24296,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
-        <v>66.0104923407318</v>
+        <v>25.68865780277527</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24335,10 +24335,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T24" t="n">
-        <v>153.1173860389223</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S25" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>209.0519625282144</v>
+        <v>279.9176257340516</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>78.91449256497958</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>165.1457354760824</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>239.5965726762905</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>104.7712654402038</v>
+        <v>74.61559865920502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.486331920129841</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>72.88699174788761</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H28" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>86.2153968693336</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.10931561104033</v>
+        <v>20.31422458817716</v>
       </c>
       <c r="S28" t="n">
         <v>167.7412420701844</v>
       </c>
       <c r="T28" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4936277569416</v>
+        <v>306.2951747301229</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>19.66363280932028</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>74.61559865920546</v>
       </c>
       <c r="H30" t="n">
-        <v>44.56515633715804</v>
+        <v>58.94334016289027</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24809,7 +24809,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>91.91084342470333</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T31" t="n">
-        <v>152.2807837992685</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,22 +24922,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H32" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I32" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,19 +24970,19 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T32" t="n">
-        <v>210.5842916762861</v>
+        <v>48.22606128698152</v>
       </c>
       <c r="U32" t="n">
         <v>254.3180969423526</v>
       </c>
       <c r="V32" t="n">
-        <v>233.8109175774326</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -25001,7 +25001,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>74.61559865920498</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H33" t="n">
         <v>58.94334016289027</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>85.56893955755871</v>
+        <v>55.41327277656058</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>93.20383315494848</v>
+        <v>103.7688651068933</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>164.6146493334786</v>
       </c>
       <c r="H34" t="n">
-        <v>139.5473206610679</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>86.2153968693336</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>233.0375990857039</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9176257340516</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
@@ -25168,10 +25168,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>101.8074933987187</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>285.807623447931</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>84.99499061398262</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>134.1049893106209</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25241,13 +25241,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>21.28453590753347</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H36" t="n">
         <v>58.94334016289027</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>55.41327277656012</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>157.6987059656529</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>33.52752020229946</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>296.2923341728127</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I38" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>210.5842916762861</v>
       </c>
       <c r="U38" t="n">
-        <v>26.08208875917005</v>
+        <v>254.3180969423526</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>104.7712654402038</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25520,19 +25520,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.56893955755871</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>195.3017141927292</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>23.82616418692493</v>
+        <v>28.78767338189155</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.5473206610679</v>
+        <v>12.45112426474115</v>
       </c>
       <c r="I40" t="n">
-        <v>86.2153968693336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.10931561104033</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>167.7412420701844</v>
       </c>
       <c r="T40" t="n">
-        <v>151.4900125155291</v>
+        <v>233.0375990857039</v>
       </c>
       <c r="U40" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -25633,7 +25633,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>232.7856964426041</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>167.6753077364867</v>
+        <v>402.4936277569416</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>84.99499061398262</v>
       </c>
       <c r="T41" t="n">
-        <v>210.5842916762861</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3180969423526</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>55.41327277656002</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25718,10 +25718,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7712654402038</v>
+        <v>52.31425719744379</v>
       </c>
       <c r="H42" t="n">
         <v>58.94334016289027</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>151.1114763885261</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>41.10931561104033</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>82.97963975399719</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>315.9034818638428</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4936277569416</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>285.807623447931</v>
       </c>
       <c r="I44" t="n">
-        <v>2.701627844419818</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.99499061398262</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.5842916762861</v>
@@ -25924,16 +25924,16 @@
         <v>254.3180969423526</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>241.7405938960502</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>66.0104923407318</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>66.01049234073213</v>
       </c>
       <c r="T45" t="n">
         <v>153.1173860389223</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6146493334786</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,25 +26073,25 @@
         <v>41.10931561104033</v>
       </c>
       <c r="S46" t="n">
-        <v>167.7412420701844</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.0375990857039</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9176257340516</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>212.4343124089554</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>207.5060004761112</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>428282.6052948122</v>
+        <v>428282.6052948123</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>428282.6052948121</v>
+        <v>428282.6052948122</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>428282.6052948122</v>
+        <v>428282.6052948121</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>428282.6052948122</v>
+        <v>428282.6052948121</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>428282.6052948123</v>
+        <v>428282.605294812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>428282.6052948121</v>
+        <v>428282.6052948122</v>
       </c>
     </row>
     <row r="14">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>421206.3036207485</v>
+        <v>421206.3036207483</v>
       </c>
       <c r="C2" t="n">
-        <v>421206.3036207485</v>
+        <v>421206.3036207484</v>
       </c>
       <c r="D2" t="n">
         <v>421206.3036207484</v>
@@ -26331,7 +26331,7 @@
         <v>240727.9794706955</v>
       </c>
       <c r="H2" t="n">
-        <v>240727.9794706955</v>
+        <v>240727.9794706956</v>
       </c>
       <c r="I2" t="n">
         <v>240727.9794706955</v>
@@ -26343,7 +26343,7 @@
         <v>240727.9794706955</v>
       </c>
       <c r="L2" t="n">
-        <v>240727.9794706955</v>
+        <v>240727.9794706956</v>
       </c>
       <c r="M2" t="n">
         <v>240727.9794706955</v>
@@ -26355,7 +26355,7 @@
         <v>240727.9794706955</v>
       </c>
       <c r="P2" t="n">
-        <v>240727.9794706955</v>
+        <v>240727.9794706954</v>
       </c>
     </row>
     <row r="3">
@@ -26432,34 +26432,34 @@
         <v>21287.39240548341</v>
       </c>
       <c r="G4" t="n">
+        <v>21287.39240548341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>21287.39240548342</v>
+      </c>
+      <c r="I4" t="n">
         <v>21287.3924054834</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21287.39240548341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>21287.39240548341</v>
       </c>
       <c r="J4" t="n">
         <v>21287.39240548341</v>
       </c>
       <c r="K4" t="n">
+        <v>21287.3924054834</v>
+      </c>
+      <c r="L4" t="n">
+        <v>21287.3924054834</v>
+      </c>
+      <c r="M4" t="n">
         <v>21287.39240548341</v>
-      </c>
-      <c r="L4" t="n">
-        <v>21287.39240548341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21287.3924054834</v>
       </c>
       <c r="N4" t="n">
         <v>21287.39240548341</v>
       </c>
       <c r="O4" t="n">
-        <v>21287.39240548341</v>
+        <v>21287.3924054834</v>
       </c>
       <c r="P4" t="n">
-        <v>21287.39240548341</v>
+        <v>21287.3924054834</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
+        <v>39031.33714783083</v>
+      </c>
+      <c r="F5" t="n">
         <v>39031.33714783084</v>
-      </c>
-      <c r="F5" t="n">
-        <v>39031.33714783083</v>
       </c>
       <c r="G5" t="n">
         <v>39031.33714783083</v>
       </c>
       <c r="H5" t="n">
-        <v>39031.33714783083</v>
+        <v>39031.33714783084</v>
       </c>
       <c r="I5" t="n">
         <v>39031.33714783083</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31856.17233940784</v>
+        <v>31847.37265377832</v>
       </c>
       <c r="C6" t="n">
-        <v>31856.1723394079</v>
+        <v>31847.37265377838</v>
       </c>
       <c r="D6" t="n">
-        <v>31856.17233940779</v>
+        <v>31847.37265377838</v>
       </c>
       <c r="E6" t="n">
-        <v>-383226.8811423982</v>
+        <v>-383929.8282286046</v>
       </c>
       <c r="F6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311748</v>
       </c>
       <c r="G6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311748</v>
       </c>
       <c r="H6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311748</v>
       </c>
       <c r="I6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311747</v>
       </c>
       <c r="J6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311747</v>
       </c>
       <c r="K6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311748</v>
       </c>
       <c r="L6" t="n">
-        <v>180409.2499173812</v>
+        <v>179706.3028311748</v>
       </c>
       <c r="M6" t="n">
-        <v>68158.14670233503</v>
+        <v>67455.19961612851</v>
       </c>
       <c r="N6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311747</v>
       </c>
       <c r="O6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311747</v>
       </c>
       <c r="P6" t="n">
-        <v>180409.2499173813</v>
+        <v>179706.3028311747</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>534.1591604021746</v>
       </c>
       <c r="F3" t="n">
+        <v>534.1591604021747</v>
+      </c>
+      <c r="G3" t="n">
         <v>534.1591604021746</v>
-      </c>
-      <c r="G3" t="n">
-        <v>534.1591604021747</v>
       </c>
       <c r="H3" t="n">
         <v>534.1591604021746</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>450.4386093924906</v>
+      </c>
+      <c r="F4" t="n">
         <v>450.4386093924907</v>
-      </c>
-      <c r="F4" t="n">
-        <v>450.4386093924906</v>
       </c>
       <c r="G4" t="n">
         <v>450.4386093924906</v>
       </c>
       <c r="H4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924907</v>
       </c>
       <c r="I4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="J4" t="n">
         <v>450.4386093924906</v>
       </c>
       <c r="K4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="L4" t="n">
+        <v>450.4386093924905</v>
+      </c>
+      <c r="M4" t="n">
         <v>450.4386093924906</v>
-      </c>
-      <c r="L4" t="n">
-        <v>450.4386093924906</v>
-      </c>
-      <c r="M4" t="n">
-        <v>450.4386093924905</v>
       </c>
       <c r="N4" t="n">
         <v>450.4386093924906</v>
       </c>
       <c r="O4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="P4" t="n">
-        <v>450.4386093924906</v>
+        <v>450.4386093924905</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>450.4386093924907</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31989,19 +31989,19 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.147373509154469</v>
+        <v>2.14737350915447</v>
       </c>
       <c r="H14" t="n">
-        <v>21.99178895062821</v>
+        <v>21.99178895062822</v>
       </c>
       <c r="I14" t="n">
-        <v>82.78661721167775</v>
+        <v>82.78661721167778</v>
       </c>
       <c r="J14" t="n">
         <v>182.2556423725993</v>
       </c>
       <c r="K14" t="n">
-        <v>273.153963015108</v>
+        <v>273.1539630151081</v>
       </c>
       <c r="L14" t="n">
         <v>338.8716450458942</v>
@@ -32019,16 +32019,16 @@
         <v>308.7949948332994</v>
       </c>
       <c r="Q14" t="n">
-        <v>231.8921810367048</v>
+        <v>231.8921810367049</v>
       </c>
       <c r="R14" t="n">
         <v>134.8899511944246</v>
       </c>
       <c r="S14" t="n">
-        <v>48.93327383985751</v>
+        <v>48.93327383985753</v>
       </c>
       <c r="T14" t="n">
-        <v>9.400127536323694</v>
+        <v>9.400127536323696</v>
       </c>
       <c r="U14" t="n">
         <v>0.1717898807323575</v>
@@ -32083,34 +32083,34 @@
         <v>185.5296019672346</v>
       </c>
       <c r="L15" t="n">
-        <v>249.4674456199024</v>
+        <v>249.4674456199025</v>
       </c>
       <c r="M15" t="n">
-        <v>291.1167424191851</v>
+        <v>291.1167424191852</v>
       </c>
       <c r="N15" t="n">
-        <v>298.8217363461184</v>
+        <v>298.8217363461185</v>
       </c>
       <c r="O15" t="n">
         <v>273.3635091918563</v>
       </c>
       <c r="P15" t="n">
-        <v>219.3983162791498</v>
+        <v>219.3983162791499</v>
       </c>
       <c r="Q15" t="n">
         <v>146.661964191933</v>
       </c>
       <c r="R15" t="n">
-        <v>71.33544410050176</v>
+        <v>71.33544410050177</v>
       </c>
       <c r="S15" t="n">
         <v>21.34117022927555</v>
       </c>
       <c r="T15" t="n">
-        <v>4.631059135939607</v>
+        <v>4.631059135939608</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07558856043427002</v>
+        <v>0.07558856043427004</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,46 +32147,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9632378302334296</v>
+        <v>0.9632378302334297</v>
       </c>
       <c r="H16" t="n">
-        <v>8.564059981529953</v>
+        <v>8.564059981529955</v>
       </c>
       <c r="I16" t="n">
         <v>28.96718856738351</v>
       </c>
       <c r="J16" t="n">
-        <v>68.10091459750346</v>
+        <v>68.10091459750348</v>
       </c>
       <c r="K16" t="n">
-        <v>111.9107224580293</v>
+        <v>111.9107224580294</v>
       </c>
       <c r="L16" t="n">
         <v>143.2071952330683</v>
       </c>
       <c r="M16" t="n">
-        <v>150.9919082428638</v>
+        <v>150.9919082428639</v>
       </c>
       <c r="N16" t="n">
-        <v>147.4016581483575</v>
+        <v>147.4016581483576</v>
       </c>
       <c r="O16" t="n">
-        <v>136.1492889497215</v>
+        <v>136.1492889497216</v>
       </c>
       <c r="P16" t="n">
         <v>116.4992372129595</v>
       </c>
       <c r="Q16" t="n">
-        <v>80.65803322072837</v>
+        <v>80.65803322072838</v>
       </c>
       <c r="R16" t="n">
-        <v>43.31067553031401</v>
+        <v>43.31067553031402</v>
       </c>
       <c r="S16" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T16" t="n">
-        <v>4.115652547361016</v>
+        <v>4.115652547361017</v>
       </c>
       <c r="U16" t="n">
         <v>0.05254024528545986</v>
@@ -32226,19 +32226,19 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.14737350915447</v>
+        <v>2.147373509154469</v>
       </c>
       <c r="H17" t="n">
-        <v>21.99178895062822</v>
+        <v>21.99178895062821</v>
       </c>
       <c r="I17" t="n">
-        <v>82.78661721167778</v>
+        <v>82.78661721167775</v>
       </c>
       <c r="J17" t="n">
         <v>182.2556423725993</v>
       </c>
       <c r="K17" t="n">
-        <v>273.1539630151081</v>
+        <v>273.153963015108</v>
       </c>
       <c r="L17" t="n">
         <v>338.8716450458942</v>
@@ -32256,16 +32256,16 @@
         <v>308.7949948332994</v>
       </c>
       <c r="Q17" t="n">
-        <v>231.8921810367049</v>
+        <v>231.8921810367048</v>
       </c>
       <c r="R17" t="n">
         <v>134.8899511944246</v>
       </c>
       <c r="S17" t="n">
-        <v>48.93327383985753</v>
+        <v>48.93327383985751</v>
       </c>
       <c r="T17" t="n">
-        <v>9.400127536323696</v>
+        <v>9.400127536323694</v>
       </c>
       <c r="U17" t="n">
         <v>0.1717898807323575</v>
@@ -32320,34 +32320,34 @@
         <v>185.5296019672346</v>
       </c>
       <c r="L18" t="n">
-        <v>249.4674456199025</v>
+        <v>249.4674456199024</v>
       </c>
       <c r="M18" t="n">
-        <v>291.1167424191852</v>
+        <v>291.1167424191851</v>
       </c>
       <c r="N18" t="n">
-        <v>298.8217363461185</v>
+        <v>298.8217363461184</v>
       </c>
       <c r="O18" t="n">
         <v>273.3635091918563</v>
       </c>
       <c r="P18" t="n">
-        <v>219.3983162791499</v>
+        <v>219.3983162791498</v>
       </c>
       <c r="Q18" t="n">
         <v>146.661964191933</v>
       </c>
       <c r="R18" t="n">
-        <v>71.33544410050177</v>
+        <v>71.33544410050176</v>
       </c>
       <c r="S18" t="n">
         <v>21.34117022927555</v>
       </c>
       <c r="T18" t="n">
-        <v>4.631059135939608</v>
+        <v>4.631059135939607</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07558856043427004</v>
+        <v>0.07558856043427002</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,46 +32384,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9632378302334297</v>
+        <v>0.9632378302334296</v>
       </c>
       <c r="H19" t="n">
-        <v>8.564059981529955</v>
+        <v>8.564059981529953</v>
       </c>
       <c r="I19" t="n">
         <v>28.96718856738351</v>
       </c>
       <c r="J19" t="n">
-        <v>68.10091459750348</v>
+        <v>68.10091459750346</v>
       </c>
       <c r="K19" t="n">
-        <v>111.9107224580294</v>
+        <v>111.9107224580293</v>
       </c>
       <c r="L19" t="n">
         <v>143.2071952330683</v>
       </c>
       <c r="M19" t="n">
-        <v>150.9919082428639</v>
+        <v>150.9919082428638</v>
       </c>
       <c r="N19" t="n">
-        <v>147.4016581483576</v>
+        <v>147.4016581483575</v>
       </c>
       <c r="O19" t="n">
-        <v>136.1492889497216</v>
+        <v>136.1492889497215</v>
       </c>
       <c r="P19" t="n">
         <v>116.4992372129595</v>
       </c>
       <c r="Q19" t="n">
-        <v>80.65803322072838</v>
+        <v>80.65803322072837</v>
       </c>
       <c r="R19" t="n">
-        <v>43.31067553031402</v>
+        <v>43.31067553031401</v>
       </c>
       <c r="S19" t="n">
         <v>16.7866083687044</v>
       </c>
       <c r="T19" t="n">
-        <v>4.115652547361017</v>
+        <v>4.115652547361016</v>
       </c>
       <c r="U19" t="n">
         <v>0.05254024528545986</v>
@@ -34392,7 +34392,7 @@
         <v>231.8921810367048</v>
       </c>
       <c r="R44" t="n">
-        <v>134.8899511944246</v>
+        <v>134.8899511944242</v>
       </c>
       <c r="S44" t="n">
         <v>48.93327383985751</v>
@@ -35494,10 +35494,10 @@
         <v>129.7038191826192</v>
       </c>
       <c r="L12" t="n">
-        <v>450.4386093924907</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M12" t="n">
-        <v>417.5478508976833</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N12" t="n">
         <v>245.6283429523684</v>
@@ -35509,10 +35509,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q12" t="n">
-        <v>89.96934568709423</v>
+        <v>442.1921260157488</v>
       </c>
       <c r="R12" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K13" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L13" t="n">
-        <v>354.6221294665837</v>
+        <v>373.3571295331142</v>
       </c>
       <c r="M13" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N13" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O13" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P13" t="n">
-        <v>60.71939557305469</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K14" t="n">
-        <v>184.0175733418909</v>
+        <v>184.017573341891</v>
       </c>
       <c r="L14" t="n">
         <v>243.3862469830494</v>
       </c>
       <c r="M14" t="n">
-        <v>283.7697742322745</v>
+        <v>283.7697742322746</v>
       </c>
       <c r="N14" t="n">
-        <v>290.2489329155858</v>
+        <v>290.2489329155859</v>
       </c>
       <c r="O14" t="n">
         <v>268.6185027147673</v>
       </c>
       <c r="P14" t="n">
-        <v>215.1456315524152</v>
+        <v>215.1456315524153</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.8583766375528</v>
+        <v>141.8583766375529</v>
       </c>
       <c r="R14" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970107</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.01690782797241</v>
+        <v>19.01690782797242</v>
       </c>
       <c r="J15" t="n">
         <v>303.3106742054521</v>
@@ -35734,22 +35734,22 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M15" t="n">
-        <v>233.5524586807677</v>
+        <v>233.5524586807678</v>
       </c>
       <c r="N15" t="n">
-        <v>245.6283429523684</v>
+        <v>245.6283429523685</v>
       </c>
       <c r="O15" t="n">
-        <v>391.5465011797585</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P15" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q15" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R15" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>16.66776891454804</v>
+        <v>49.95332276133724</v>
       </c>
       <c r="K16" t="n">
         <v>268.0241848037243</v>
@@ -35813,13 +35813,13 @@
         <v>405.729518748281</v>
       </c>
       <c r="M16" t="n">
-        <v>94.7269657440838</v>
+        <v>94.72696574408383</v>
       </c>
       <c r="N16" t="n">
-        <v>128.9745664867273</v>
+        <v>95.68901263993813</v>
       </c>
       <c r="O16" t="n">
-        <v>398.3317236229277</v>
+        <v>398.3317236229278</v>
       </c>
       <c r="P16" t="n">
         <v>324.2522071620629</v>
@@ -35886,28 +35886,28 @@
         <v>108.9320510392914</v>
       </c>
       <c r="K17" t="n">
-        <v>184.017573341891</v>
+        <v>184.0175733418909</v>
       </c>
       <c r="L17" t="n">
         <v>243.3862469830494</v>
       </c>
       <c r="M17" t="n">
-        <v>283.7697742322746</v>
+        <v>283.7697742322745</v>
       </c>
       <c r="N17" t="n">
-        <v>290.2489329155859</v>
+        <v>290.2489329155858</v>
       </c>
       <c r="O17" t="n">
         <v>268.6185027147673</v>
       </c>
       <c r="P17" t="n">
-        <v>215.1456315524153</v>
+        <v>215.1456315524152</v>
       </c>
       <c r="Q17" t="n">
-        <v>141.8583766375529</v>
+        <v>141.8583766375528</v>
       </c>
       <c r="R17" t="n">
-        <v>47.57780837970107</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.01690782797242</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>274.4348787532318</v>
+        <v>57.180973220974</v>
       </c>
       <c r="K18" t="n">
         <v>129.7038191826192</v>
       </c>
       <c r="L18" t="n">
-        <v>193.3529218090534</v>
+        <v>450.4386093924906</v>
       </c>
       <c r="M18" t="n">
-        <v>233.5524586807678</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N18" t="n">
-        <v>450.4386093924906</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O18" t="n">
         <v>215.6120301918563</v>
       </c>
       <c r="P18" t="n">
-        <v>165.1386812763461</v>
+        <v>349.1340734932616</v>
       </c>
       <c r="Q18" t="n">
-        <v>89.96934568709426</v>
+        <v>89.96934568709423</v>
       </c>
       <c r="R18" t="n">
-        <v>12.33524499509637</v>
+        <v>12.33524499509635</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>16.66776891454806</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K19" t="n">
-        <v>198.1541262730082</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L19" t="n">
-        <v>88.57890133916678</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M19" t="n">
         <v>443.1778238393217</v>
@@ -36056,13 +36056,13 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O19" t="n">
-        <v>398.3317236229278</v>
+        <v>281.5663912792742</v>
       </c>
       <c r="P19" t="n">
-        <v>60.71939557305472</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q19" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36220,10 +36220,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q21" t="n">
-        <v>265.9038166749965</v>
+        <v>177.0455172032986</v>
       </c>
       <c r="R21" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K22" t="n">
-        <v>59.66035289896251</v>
+        <v>93.47101012349511</v>
       </c>
       <c r="L22" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M22" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N22" t="n">
         <v>431.0771959203275</v>
@@ -36296,10 +36296,10 @@
         <v>398.3317236229277</v>
       </c>
       <c r="P22" t="n">
-        <v>133.5552258851446</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q22" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J24" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K24" t="n">
         <v>129.7038191826192</v>
@@ -36445,7 +36445,7 @@
         <v>193.3529218090534</v>
       </c>
       <c r="M24" t="n">
-        <v>295.1473669477516</v>
+        <v>233.5524586807677</v>
       </c>
       <c r="N24" t="n">
         <v>245.6283429523684</v>
@@ -36457,10 +36457,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q24" t="n">
-        <v>450.4386093924906</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R24" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>59.66035289896251</v>
       </c>
       <c r="L25" t="n">
-        <v>354.6221294665832</v>
+        <v>354.6221294665827</v>
       </c>
       <c r="M25" t="n">
         <v>443.1778238393217</v>
@@ -36673,7 +36673,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7758814879579</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K27" t="n">
         <v>129.7038191826192</v>
@@ -36694,10 +36694,10 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q27" t="n">
-        <v>450.4386093924906</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R27" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.32571197650398</v>
+        <v>49.95332276133724</v>
       </c>
       <c r="K28" t="n">
-        <v>59.66035289896251</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L28" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M28" t="n">
-        <v>443.1778238393217</v>
+        <v>94.7269657440838</v>
       </c>
       <c r="N28" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O28" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P28" t="n">
-        <v>133.5552258851446</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q28" t="n">
         <v>146.8479623141737</v>
@@ -36910,7 +36910,7 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J30" t="n">
-        <v>155.5602665210218</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K30" t="n">
         <v>129.7038191826192</v>
@@ -36925,13 +36925,13 @@
         <v>245.6283429523684</v>
       </c>
       <c r="O30" t="n">
-        <v>450.4386093924906</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P30" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q30" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R30" t="n">
         <v>101.1935444667946</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>20.28490079004482</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K31" t="n">
         <v>59.66035289896251</v>
       </c>
       <c r="L31" t="n">
-        <v>405.729518748281</v>
+        <v>354.6221294665827</v>
       </c>
       <c r="M31" t="n">
         <v>443.1778238393217</v>
@@ -37004,10 +37004,10 @@
         <v>431.0771959203275</v>
       </c>
       <c r="O31" t="n">
-        <v>80.0743908767252</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P31" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q31" t="n">
         <v>19.2985075608028</v>
@@ -37077,7 +37077,7 @@
         <v>243.3862469830494</v>
       </c>
       <c r="M32" t="n">
-        <v>283.7697742322745</v>
+        <v>283.769774232274</v>
       </c>
       <c r="N32" t="n">
         <v>290.2489329155858</v>
@@ -37092,7 +37092,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R32" t="n">
-        <v>47.57780837970112</v>
+        <v>47.57780837970104</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J33" t="n">
-        <v>57.180973220974</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K33" t="n">
         <v>129.7038191826192</v>
       </c>
       <c r="L33" t="n">
-        <v>450.4386093924906</v>
+        <v>193.3529218090534</v>
       </c>
       <c r="M33" t="n">
         <v>233.5524586807677</v>
@@ -37165,13 +37165,13 @@
         <v>215.6120301918563</v>
       </c>
       <c r="P33" t="n">
-        <v>330.1171656652893</v>
+        <v>165.1386812763461</v>
       </c>
       <c r="Q33" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R33" t="n">
-        <v>12.33524499509635</v>
+        <v>101.1935444667946</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.66776891454804</v>
+        <v>82.32571197650398</v>
       </c>
       <c r="K34" t="n">
         <v>268.0241848037243</v>
@@ -37235,19 +37235,19 @@
         <v>88.57890133916675</v>
       </c>
       <c r="M34" t="n">
-        <v>443.1778238393217</v>
+        <v>379.5051939380308</v>
       </c>
       <c r="N34" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O34" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P34" t="n">
-        <v>118.3987917957096</v>
+        <v>324.2522071620629</v>
       </c>
       <c r="Q34" t="n">
-        <v>19.2985075608028</v>
+        <v>146.8479623141737</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>19.01690782797241</v>
       </c>
       <c r="J36" t="n">
         <v>303.3106742054521</v>
       </c>
       <c r="K36" t="n">
-        <v>235.7968985267953</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L36" t="n">
         <v>193.3529218090534</v>
@@ -37405,7 +37405,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q36" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R36" t="n">
         <v>101.1935444667946</v>
@@ -37466,25 +37466,25 @@
         <v>82.32571197650398</v>
       </c>
       <c r="K37" t="n">
-        <v>132.4961832110521</v>
+        <v>268.0241848037243</v>
       </c>
       <c r="L37" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M37" t="n">
         <v>443.1778238393217</v>
       </c>
       <c r="N37" t="n">
-        <v>431.0771959203275</v>
+        <v>95.6890126399381</v>
       </c>
       <c r="O37" t="n">
         <v>398.3317236229277</v>
       </c>
       <c r="P37" t="n">
-        <v>60.71939557305469</v>
+        <v>70.97841460502887</v>
       </c>
       <c r="Q37" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>19.01690782797241</v>
       </c>
       <c r="J39" t="n">
-        <v>69.65205551178482</v>
+        <v>303.3106742054521</v>
       </c>
       <c r="K39" t="n">
-        <v>450.4386093924906</v>
+        <v>129.7038191826192</v>
       </c>
       <c r="L39" t="n">
         <v>193.3529218090534</v>
@@ -37642,7 +37642,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q39" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032984</v>
       </c>
       <c r="R39" t="n">
         <v>101.1935444667946</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K40" t="n">
-        <v>132.4961832110525</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L40" t="n">
-        <v>88.57890133916675</v>
+        <v>354.6221294665832</v>
       </c>
       <c r="M40" t="n">
         <v>443.1778238393217</v>
@@ -37721,7 +37721,7 @@
         <v>60.71939557305469</v>
       </c>
       <c r="Q40" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37870,7 +37870,7 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N42" t="n">
-        <v>332.7045144685726</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O42" t="n">
         <v>215.6120301918563</v>
@@ -37879,7 +37879,7 @@
         <v>165.1386812763461</v>
       </c>
       <c r="Q42" t="n">
-        <v>89.96934568709423</v>
+        <v>177.0455172032979</v>
       </c>
       <c r="R42" t="n">
         <v>101.1935444667946</v>
@@ -37946,7 +37946,7 @@
         <v>405.729518748281</v>
       </c>
       <c r="M43" t="n">
-        <v>392.070434557624</v>
+        <v>392.0704345576235</v>
       </c>
       <c r="N43" t="n">
         <v>431.0771959203275</v>
@@ -38040,7 +38040,7 @@
         <v>141.8583766375528</v>
       </c>
       <c r="R44" t="n">
-        <v>47.57780837970104</v>
+        <v>47.57780837970067</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>233.5524586807677</v>
       </c>
       <c r="N45" t="n">
-        <v>450.4386093924906</v>
+        <v>245.6283429523684</v>
       </c>
       <c r="O45" t="n">
-        <v>432.8659357241143</v>
+        <v>215.6120301918563</v>
       </c>
       <c r="P45" t="n">
         <v>165.1386812763461</v>
       </c>
       <c r="Q45" t="n">
-        <v>89.96934568709423</v>
+        <v>450.4386093924905</v>
       </c>
       <c r="R45" t="n">
-        <v>12.33524499509635</v>
+        <v>73.93015326208018</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>82.32571197650398</v>
+        <v>16.66776891454804</v>
       </c>
       <c r="K46" t="n">
-        <v>268.0241848037243</v>
+        <v>59.66035289896251</v>
       </c>
       <c r="L46" t="n">
-        <v>88.57890133916675</v>
+        <v>405.729518748281</v>
       </c>
       <c r="M46" t="n">
-        <v>443.1778238393217</v>
+        <v>392.0704345576235</v>
       </c>
       <c r="N46" t="n">
-        <v>95.6890126399381</v>
+        <v>431.0771959203275</v>
       </c>
       <c r="O46" t="n">
-        <v>334.6590937216372</v>
+        <v>398.3317236229277</v>
       </c>
       <c r="P46" t="n">
-        <v>324.2522071620629</v>
+        <v>60.71939557305469</v>
       </c>
       <c r="Q46" t="n">
-        <v>146.8479623141737</v>
+        <v>19.2985075608028</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
